--- a/Results/150 model - random speed.xlsx
+++ b/Results/150 model - random speed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\Documents\GitHub\Bike-Sharing-Simulation\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0F560F-A865-45F5-ABAD-8A1C0B6B71F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D22E847-0084-4355-8C5B-87A2FB77B7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{0FFBF88E-C147-464B-AD57-C6FEEB8E8E56}"/>
+    <workbookView xWindow="3252" yWindow="3708" windowWidth="16440" windowHeight="12120" xr2:uid="{0FFBF88E-C147-464B-AD57-C6FEEB8E8E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -841,7 +841,7 @@
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D136"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3993.3763397239941</v>
+        <v>3993.385968</v>
       </c>
       <c r="C2" s="1">
-        <v>8464.5239999999994</v>
+        <v>297.76499999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>0.4717780160732008</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -885,13 +885,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>586.27467805417825</v>
+        <v>586.27060800000004</v>
       </c>
       <c r="C3" s="1">
-        <v>1561.759</v>
+        <v>43.715000000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>0.37539382072021243</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -899,13 +899,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3880.9860351524403</v>
+        <v>3880.9867007999997</v>
       </c>
       <c r="C4" s="1">
-        <v>15202.126</v>
+        <v>289.38400000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2552923212945637</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -913,13 +913,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4479.1728682422536</v>
+        <v>4479.1664544000005</v>
       </c>
       <c r="C5" s="1">
-        <v>5366.9049999999997</v>
+        <v>333.98700000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>0.83459142061248592</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -927,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1632.9949175640306</v>
+        <v>1633.0013567999999</v>
       </c>
       <c r="C6" s="1">
-        <v>4441.6959999999999</v>
+        <v>121.764</v>
       </c>
       <c r="D6" s="1">
-        <v>0.36765121196138384</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -941,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2084.7131991707201</v>
+        <v>2084.7173951999998</v>
       </c>
       <c r="C7" s="1">
-        <v>2900.6619999999998</v>
+        <v>155.446</v>
       </c>
       <c r="D7" s="1">
-        <v>0.71870255795770766</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -955,13 +955,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2723.46292561053</v>
+        <v>2723.4660288</v>
       </c>
       <c r="C8" s="1">
-        <v>2912.326</v>
+        <v>203.07400000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>0.93515043494805528</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -969,13 +969,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3992.1823872224413</v>
+        <v>3992.1789600000002</v>
       </c>
       <c r="C9" s="1">
-        <v>5851.3810000000003</v>
+        <v>297.67500000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>0.68226327891184002</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -983,13 +983,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8289.0534190685976</v>
+        <v>8289.0603840000003</v>
       </c>
       <c r="C10" s="1">
-        <v>9502.2119999999995</v>
+        <v>618.07000000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>0.87232882396947131</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -997,13 +997,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3365.2359431988693</v>
+        <v>3365.2321823999996</v>
       </c>
       <c r="C11" s="1">
-        <v>13897.475</v>
+        <v>250.92699999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>0.24214729245412348</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1011,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2145.3250014206092</v>
+        <v>2145.3360192</v>
       </c>
       <c r="C12" s="1">
-        <v>338016.98700000002</v>
+        <v>159.96600000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>6.3467964153547385E-3</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3829.3675585198002</v>
+        <v>3829.3669919999998</v>
       </c>
       <c r="C13" s="1">
-        <v>5829.3789999999999</v>
+        <v>285.53500000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>0.65690831879687361</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1046.7448607237404</v>
+        <v>1046.74416</v>
       </c>
       <c r="C14" s="1">
-        <v>1072.4190000000001</v>
+        <v>78.05</v>
       </c>
       <c r="D14" s="1">
-        <v>0.97605960051410912</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>3789.8019156628184</v>
+        <v>3789.8039519999998</v>
       </c>
       <c r="C15" s="1">
-        <v>7360.2809999999999</v>
+        <v>282.58499999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>0.51489908003007201</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>3405.7041152720999</v>
+        <v>3405.6937727999998</v>
       </c>
       <c r="C16" s="1">
-        <v>3475.9079999999999</v>
+        <v>253.94399999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>0.97980272069114027</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>541.83986246727522</v>
+        <v>541.83930239999995</v>
       </c>
       <c r="C17" s="1">
-        <v>673.18799999999999</v>
+        <v>40.402000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>0.8048863949851679</v>
+        <v>13.411199999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1095,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2001.3469435067902</v>
+        <v>2001.3399648</v>
       </c>
       <c r="C18" s="1">
-        <v>2025.72</v>
+        <v>149.22900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>0.9879682006924897</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1109,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1259.8956625426417</v>
+        <v>1259.9017727999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1969.4559999999999</v>
+        <v>93.944000000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>0.63971759843461429</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1123,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>2032.9061235346439</v>
+        <v>2032.8965183999999</v>
       </c>
       <c r="C20" s="1">
-        <v>8576.5669999999991</v>
+        <v>151.58199999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>0.23703028537346515</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1137,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>3275.1981628927906</v>
+        <v>3275.2027967999998</v>
       </c>
       <c r="C21" s="1">
-        <v>4475.2510000000002</v>
+        <v>244.214</v>
       </c>
       <c r="D21" s="1">
-        <v>0.731846808791907</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1151,13 +1151,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1255.3968746844182</v>
+        <v>1255.3956095999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1292.6479999999999</v>
+        <v>93.608000000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>0.971182313115727</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1165,13 +1165,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2847.3830491225658</v>
+        <v>2847.3855168</v>
       </c>
       <c r="C23" s="1">
-        <v>7261.9309999999996</v>
+        <v>212.31399999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>0.39209723269507324</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1179,13 +1179,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>6514.2309825551665</v>
+        <v>6514.2355871999998</v>
       </c>
       <c r="C24" s="1">
-        <v>38751.563999999998</v>
+        <v>485.73099999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>0.1681024018167413</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1193,13 +1193,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>5529.320147872525</v>
+        <v>5529.3170591999997</v>
       </c>
       <c r="C25" s="1">
-        <v>24822.824000000001</v>
+        <v>412.291</v>
       </c>
       <c r="D25" s="1">
-        <v>0.22275145438216559</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1207,13 +1207,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>6512.083836780308</v>
+        <v>6512.0897951999996</v>
       </c>
       <c r="C26" s="1">
-        <v>29733.777999999998</v>
+        <v>485.57100000000003</v>
       </c>
       <c r="D26" s="1">
-        <v>0.21901299716370748</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1221,13 +1221,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2507.6346981757565</v>
+        <v>2507.6395871999998</v>
       </c>
       <c r="C27" s="1">
-        <v>3187.9609999999998</v>
+        <v>186.98099999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>0.78659516166469934</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1235,13 +1235,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>864.00796535197651</v>
+        <v>864.00314879999996</v>
       </c>
       <c r="C28" s="1">
-        <v>3752.0630000000001</v>
+        <v>64.424000000000007</v>
       </c>
       <c r="D28" s="1">
-        <v>0.23027544189742455</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1249,13 +1249,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>982.93289623929809</v>
+        <v>982.93367039999998</v>
       </c>
       <c r="C29" s="1">
-        <v>1787.0250000000001</v>
+        <v>73.292000000000002</v>
       </c>
       <c r="D29" s="1">
-        <v>0.55003869349298307</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1263,13 +1263,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>1.2937387948553634</v>
+        <v>1.3008863999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>1.649</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.78455960876613906</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1277,13 +1277,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1298.98144010801</v>
+        <v>1298.9820096000001</v>
       </c>
       <c r="C31" s="1">
-        <v>1533.7860000000001</v>
+        <v>96.858000000000004</v>
       </c>
       <c r="D31" s="1">
-        <v>0.84691178567806069</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1291,13 +1291,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>1385.4220072111639</v>
+        <v>1385.4171935999998</v>
       </c>
       <c r="C32" s="1">
-        <v>2065.2330000000002</v>
+        <v>103.303</v>
       </c>
       <c r="D32" s="1">
-        <v>0.67083084921225056</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1305,13 +1305,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>2742.8132095060769</v>
+        <v>2742.8049792000002</v>
       </c>
       <c r="C33" s="1">
-        <v>3004.0079999999998</v>
+        <v>204.51599999999999</v>
       </c>
       <c r="D33" s="1">
-        <v>0.91305123338755312</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1319,13 +1319,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>6932.4090178711158</v>
+        <v>6932.4102143999999</v>
       </c>
       <c r="C34" s="1">
-        <v>64007.411</v>
+        <v>516.91200000000003</v>
       </c>
       <c r="D34" s="1">
-        <v>0.10830634936743677</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1333,13 +1333,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>8242.0302413957452</v>
+        <v>8242.0273055999987</v>
       </c>
       <c r="C35" s="1">
-        <v>11449.575999999999</v>
+        <v>614.56299999999999</v>
       </c>
       <c r="D35" s="1">
-        <v>0.71985462530627731</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1347,13 +1347,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>845.28998347721858</v>
+        <v>845.29452479999986</v>
       </c>
       <c r="C36" s="1">
-        <v>11901.117</v>
+        <v>63.029000000000003</v>
       </c>
       <c r="D36" s="1">
-        <v>7.1026104816650282E-2</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1361,13 +1361,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>2063.3840088601969</v>
+        <v>2063.3801760000001</v>
       </c>
       <c r="C37" s="1">
-        <v>4460.1610000000001</v>
+        <v>153.85499999999999</v>
       </c>
       <c r="D37" s="1">
-        <v>0.46262545429642488</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1375,13 +1375,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>1376.1558881711226</v>
+        <v>1376.1634656000001</v>
       </c>
       <c r="C38" s="1">
-        <v>3086.2249999999999</v>
+        <v>102.613</v>
       </c>
       <c r="D38" s="1">
-        <v>0.44590264422429426</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1389,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1597.492920930591</v>
+        <v>1597.4884992</v>
       </c>
       <c r="C39" s="1">
-        <v>9395.5409999999993</v>
+        <v>119.116</v>
       </c>
       <c r="D39" s="1">
-        <v>0.17002670957751032</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1403,13 +1403,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>2160.6729705513249</v>
+        <v>2160.6650208000001</v>
       </c>
       <c r="C40" s="1">
-        <v>2878.21</v>
+        <v>161.10900000000001</v>
       </c>
       <c r="D40" s="1">
-        <v>0.75070025138934438</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1417,13 +1417,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>1426.9096625540496</v>
+        <v>1426.9114463999999</v>
       </c>
       <c r="C41" s="1">
-        <v>2707.6729999999998</v>
+        <v>106.39700000000001</v>
       </c>
       <c r="D41" s="1">
-        <v>0.52698743997301356</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1431,13 +1431,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>2144.6089969235732</v>
+        <v>2144.6118144000002</v>
       </c>
       <c r="C42" s="1">
-        <v>12890.862999999999</v>
+        <v>159.91200000000001</v>
       </c>
       <c r="D42" s="1">
-        <v>0.16636659600862824</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1445,13 +1445,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>4513.377159029249</v>
+        <v>4513.3784255999999</v>
       </c>
       <c r="C43" s="1">
-        <v>6312.2169999999996</v>
+        <v>336.53800000000001</v>
       </c>
       <c r="D43" s="1">
-        <v>0.71502249669636664</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>3511.5679214454199</v>
+        <v>3511.5617855999994</v>
       </c>
       <c r="C44" s="1">
-        <v>7644.9489999999996</v>
+        <v>261.83800000000002</v>
       </c>
       <c r="D44" s="1">
-        <v>0.45933176551542987</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1473,13 +1473,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1719.928859251319</v>
+        <v>1719.9327551999997</v>
       </c>
       <c r="C45" s="1">
-        <v>1761.9469999999999</v>
+        <v>128.24600000000001</v>
       </c>
       <c r="D45" s="1">
-        <v>0.97615243775852445</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1487,13 +1487,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>2453.3519542025811</v>
+        <v>2453.3510495999999</v>
       </c>
       <c r="C46" s="1">
-        <v>3986.8910000000001</v>
+        <v>182.93299999999999</v>
       </c>
       <c r="D46" s="1">
-        <v>0.61535465960884839</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1501,13 +1501,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>2718.6251433692537</v>
+        <v>2718.6245856</v>
       </c>
       <c r="C47" s="1">
-        <v>5429.4129999999996</v>
+        <v>202.71299999999999</v>
       </c>
       <c r="D47" s="1">
-        <v>0.50072174346826326</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1515,13 +1515,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>10426.005709670788</v>
+        <v>10426.000991999999</v>
       </c>
       <c r="C48" s="1">
-        <v>13148.136</v>
+        <v>777.41</v>
       </c>
       <c r="D48" s="1">
-        <v>0.7929645471929091</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1529,13 +1529,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1508.4139141071421</v>
+        <v>1508.4113087999999</v>
       </c>
       <c r="C49" s="1">
-        <v>3573.6370000000002</v>
+        <v>112.474</v>
       </c>
       <c r="D49" s="1">
-        <v>0.42209488935421868</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>15.565135891118519</v>
+        <v>15.556991999999997</v>
       </c>
       <c r="C50" s="1">
-        <v>22.771999999999998</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D50" s="1">
-        <v>0.68352081025463374</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1557,13 +1557,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>671.70073111269983</v>
+        <v>671.69995199999994</v>
       </c>
       <c r="C51" s="1">
-        <v>778.46900000000005</v>
+        <v>50.085000000000001</v>
       </c>
       <c r="D51" s="1">
-        <v>0.86284840001682772</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1571,13 +1571,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>2356.0588722720304</v>
+        <v>2356.0662047999999</v>
       </c>
       <c r="C52" s="1">
-        <v>4519.8289999999997</v>
+        <v>175.679</v>
       </c>
       <c r="D52" s="1">
-        <v>0.52127168356856657</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1585,13 +1585,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>13.308825473026435</v>
+        <v>13.303910399999999</v>
       </c>
       <c r="C53" s="1">
-        <v>47.783999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="D53" s="1">
-        <v>0.27852053978374425</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1599,13 +1599,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>1116.7211956217918</v>
+        <v>1116.7238015999999</v>
       </c>
       <c r="C54" s="1">
-        <v>1399.222</v>
+        <v>83.268000000000001</v>
       </c>
       <c r="D54" s="1">
-        <v>0.79810151328509116</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1613,13 +1613,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>2171.1457276136439</v>
+        <v>2171.1525792000002</v>
       </c>
       <c r="C55" s="1">
-        <v>2525.5540000000001</v>
+        <v>161.89099999999999</v>
       </c>
       <c r="D55" s="1">
-        <v>0.85967107716312685</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1627,13 +1627,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>7668.7010207141957</v>
+        <v>7668.6985055999994</v>
       </c>
       <c r="C56" s="1">
-        <v>21363.153999999999</v>
+        <v>571.81299999999999</v>
       </c>
       <c r="D56" s="1">
-        <v>0.35896857836226781</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1641,13 +1641,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>1417.607039432806</v>
+        <v>1417.6040736</v>
       </c>
       <c r="C57" s="1">
-        <v>6103.3339999999998</v>
+        <v>105.703</v>
       </c>
       <c r="D57" s="1">
-        <v>0.23226764903130093</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1655,13 +1655,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>2229.7826390985933</v>
+        <v>2229.7863455999995</v>
       </c>
       <c r="C58" s="1">
-        <v>2697.0920000000001</v>
+        <v>166.26300000000001</v>
       </c>
       <c r="D58" s="1">
-        <v>0.82673584701544978</v>
+        <v>13.411199999999997</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1669,13 +1669,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>1683.7688718501261</v>
+        <v>1683.7627488000001</v>
       </c>
       <c r="C59" s="1">
-        <v>3932.6509999999998</v>
+        <v>125.54900000000001</v>
       </c>
       <c r="D59" s="1">
-        <v>0.42815110515785049</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1683,13 +1683,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>1607.6428586177342</v>
+        <v>1607.6407775999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2641.5329999999999</v>
+        <v>119.873</v>
       </c>
       <c r="D60" s="1">
-        <v>0.60860222401830077</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1697,13 +1697,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>1.7339119617333683</v>
+        <v>1.7300447999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2.157</v>
+        <v>0.129</v>
       </c>
       <c r="D61" s="1">
-        <v>0.80385348249113042</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1711,13 +1711,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>397.1456283436583</v>
+        <v>397.14586559999998</v>
       </c>
       <c r="C62" s="1">
-        <v>399.69400000000002</v>
+        <v>29.613</v>
       </c>
       <c r="D62" s="1">
-        <v>0.99362419336707153</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1725,13 +1725,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>2.812689933959184</v>
+        <v>2.8029408</v>
       </c>
       <c r="C63" s="1">
-        <v>3.3039999999999998</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D63" s="1">
-        <v>0.85129840616198071</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1739,13 +1739,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>9.8751595570980317</v>
+        <v>9.8706431999999982</v>
       </c>
       <c r="C64" s="1">
-        <v>30.858000000000001</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="D64" s="1">
-        <v>0.32001942955143015</v>
+        <v>13.411199999999997</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1753,13 +1753,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>16.804078216561088</v>
+        <v>16.8042336</v>
       </c>
       <c r="C65" s="1">
-        <v>23.029</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="D65" s="1">
-        <v>0.72969204987455327</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1767,13 +1767,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>6832.1739951664995</v>
+        <v>6832.174905599999</v>
       </c>
       <c r="C66" s="1">
-        <v>7449.95</v>
+        <v>509.43799999999999</v>
       </c>
       <c r="D66" s="1">
-        <v>0.91707648979744816</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1781,13 +1781,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>1314.9291825800492</v>
+        <v>1314.9279263999999</v>
       </c>
       <c r="C67" s="1">
-        <v>2379.4070000000002</v>
+        <v>98.046999999999997</v>
       </c>
       <c r="D67" s="1">
-        <v>0.55262894602732915</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,13 +1795,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>1387.647998745108</v>
+        <v>1387.6434527999997</v>
       </c>
       <c r="C68" s="1">
-        <v>41475.402999999998</v>
+        <v>103.46899999999999</v>
       </c>
       <c r="D68" s="1">
-        <v>3.3457131175919086E-2</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1809,13 +1809,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>1593.7598235108535</v>
+        <v>1593.7601855999999</v>
       </c>
       <c r="C69" s="1">
-        <v>4090.5129999999999</v>
+        <v>118.83799999999999</v>
       </c>
       <c r="D69" s="1">
-        <v>0.38962345884510174</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1823,13 +1823,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>747.93804264702533</v>
+        <v>747.94262399999991</v>
       </c>
       <c r="C70" s="1">
-        <v>8626.0159999999996</v>
+        <v>55.77</v>
       </c>
       <c r="D70" s="1">
-        <v>8.6707240358356086E-2</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1837,13 +1837,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>16884.454078138187</v>
+        <v>16884.459398399998</v>
       </c>
       <c r="C71" s="1">
-        <v>31942.312999999998</v>
+        <v>1258.982</v>
       </c>
       <c r="D71" s="1">
-        <v>0.52859209281864428</v>
+        <v>13.411199999999997</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1851,13 +1851,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>4152.2968263428065</v>
+        <v>4152.2952767999996</v>
       </c>
       <c r="C72" s="1">
-        <v>21011.075000000001</v>
+        <v>309.61399999999998</v>
       </c>
       <c r="D72" s="1">
-        <v>0.19762419706477685</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1865,13 +1865,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>1475.477988155081</v>
+        <v>1475.4734016</v>
       </c>
       <c r="C73" s="1">
-        <v>2730.9229999999998</v>
+        <v>110.018</v>
       </c>
       <c r="D73" s="1">
-        <v>0.54028545958823482</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1879,13 +1879,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>1528.3992026097876</v>
+        <v>1528.3939967999997</v>
       </c>
       <c r="C74" s="1">
-        <v>3155.9670000000001</v>
+        <v>113.964</v>
       </c>
       <c r="D74" s="1">
-        <v>0.48428871487242664</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1893,13 +1893,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>1568.0360491750969</v>
+        <v>1568.0375039999999</v>
       </c>
       <c r="C75" s="1">
-        <v>7401.9560000000001</v>
+        <v>116.92</v>
       </c>
       <c r="D75" s="1">
-        <v>0.21184076873398017</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1907,13 +1907,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>3706.1349988072038</v>
+        <v>3706.1314751999998</v>
       </c>
       <c r="C76" s="1">
-        <v>123979.765</v>
+        <v>276.346</v>
       </c>
       <c r="D76" s="1">
-        <v>2.9893063588297686E-2</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1921,13 +1921,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>5972.0779822073691</v>
+        <v>5972.0878271999991</v>
       </c>
       <c r="C77" s="1">
-        <v>153909.80300000001</v>
+        <v>445.30599999999998</v>
       </c>
       <c r="D77" s="1">
-        <v>3.8802453552665317E-2</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1935,13 +1935,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>16525.338152801327</v>
+        <v>16525.334284799999</v>
       </c>
       <c r="C78" s="1">
-        <v>54961.472000000002</v>
+        <v>1232.204</v>
       </c>
       <c r="D78" s="1">
-        <v>0.3006713166780054</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1949,13 +1949,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>7085.5659214355019</v>
+        <v>7085.5661183999991</v>
       </c>
       <c r="C79" s="1">
-        <v>8124.9870000000001</v>
+        <v>528.33199999999999</v>
       </c>
       <c r="D79" s="1">
-        <v>0.87207104718266026</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1963,13 +1963,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>640.88531254670193</v>
+        <v>640.88101440000003</v>
       </c>
       <c r="C80" s="1">
-        <v>778.09500000000003</v>
+        <v>47.786999999999999</v>
       </c>
       <c r="D80" s="1">
-        <v>0.82365946644908639</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1977,13 +1977,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>677.71610082314737</v>
+        <v>677.72158079999997</v>
       </c>
       <c r="C81" s="1">
-        <v>764.70100000000002</v>
+        <v>50.533999999999999</v>
       </c>
       <c r="D81" s="1">
-        <v>0.88624979020969941</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1991,13 +1991,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>716.69599819506891</v>
+        <v>716.69452799999988</v>
       </c>
       <c r="C82" s="1">
-        <v>148606.97</v>
+        <v>53.44</v>
       </c>
       <c r="D82" s="1">
-        <v>4.8227616658563788E-3</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2005,13 +2005,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>13.815290924185037</v>
+        <v>13.813535999999997</v>
       </c>
       <c r="C83" s="1">
-        <v>16.632000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="D83" s="1">
-        <v>0.83064519746182286</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2019,13 +2019,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>359.54789369168259</v>
+        <v>359.55427199999997</v>
       </c>
       <c r="C84" s="1">
-        <v>391.952</v>
+        <v>26.81</v>
       </c>
       <c r="D84" s="1">
-        <v>0.91732634019390791</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2033,13 +2033,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>1065.6070079719045</v>
+        <v>1065.6137183999999</v>
       </c>
       <c r="C85" s="1">
-        <v>3099.105</v>
+        <v>79.456999999999994</v>
       </c>
       <c r="D85" s="1">
-        <v>0.34384346705642582</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2047,13 +2047,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>533.92189023197159</v>
+        <v>533.91328319999991</v>
       </c>
       <c r="C86" s="1">
-        <v>3034.895</v>
+        <v>39.811</v>
       </c>
       <c r="D86" s="1">
-        <v>0.17592763183964244</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2061,13 +2061,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>561.32528623239841</v>
+        <v>561.32577599999991</v>
       </c>
       <c r="C87" s="1">
-        <v>1365.818</v>
+        <v>41.854999999999997</v>
       </c>
       <c r="D87" s="1">
-        <v>0.41098102838913997</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2075,13 +2075,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>3254.248689279581</v>
+        <v>3254.2545023999996</v>
       </c>
       <c r="C88" s="1">
-        <v>4433.683</v>
+        <v>242.65199999999999</v>
       </c>
       <c r="D88" s="1">
-        <v>0.73398316687945009</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2089,13 +2089,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>5823.850038771865</v>
+        <v>5823.8538335999992</v>
       </c>
       <c r="C89" s="1">
-        <v>9859.2999999999993</v>
+        <v>434.25299999999999</v>
       </c>
       <c r="D89" s="1">
-        <v>0.59069609797570466</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2103,13 +2103,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>864.74811303989623</v>
+        <v>864.75417600000003</v>
       </c>
       <c r="C90" s="1">
-        <v>1540.5509999999999</v>
+        <v>64.48</v>
       </c>
       <c r="D90" s="1">
-        <v>0.56132391140565696</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2117,13 +2117,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>62.876982906592104</v>
+        <v>62.885116799999999</v>
       </c>
       <c r="C91" s="1">
-        <v>899.15899999999999</v>
+        <v>4.6890000000000001</v>
       </c>
       <c r="D91" s="1">
-        <v>6.9928658787369202E-2</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,13 +2131,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>866.71781228077919</v>
+        <v>866.72562240000002</v>
       </c>
       <c r="C92" s="1">
-        <v>1284.0029999999999</v>
+        <v>64.626999999999995</v>
       </c>
       <c r="D92" s="1">
-        <v>0.67501229536128748</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2145,13 +2145,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>1511.3485331708816</v>
+        <v>1511.3483615999999</v>
       </c>
       <c r="C93" s="1">
-        <v>1710.4649999999999</v>
+        <v>112.693</v>
       </c>
       <c r="D93" s="1">
-        <v>0.88358927728476278</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2159,13 +2159,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>1101.1888896164037</v>
+        <v>1101.193632</v>
       </c>
       <c r="C94" s="1">
-        <v>1696.7360000000001</v>
+        <v>82.11</v>
       </c>
       <c r="D94" s="1">
-        <v>0.64900425853898525</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,13 +2173,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>685.4979822247584</v>
+        <v>685.48666559999992</v>
       </c>
       <c r="C95" s="1">
-        <v>20658.72</v>
+        <v>51.113</v>
       </c>
       <c r="D95" s="1">
-        <v>3.3182016224856059E-2</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2187,13 +2187,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>6871.7021267602677</v>
+        <v>6871.7111231999997</v>
       </c>
       <c r="C96" s="1">
-        <v>12277.075999999999</v>
+        <v>512.38599999999997</v>
       </c>
       <c r="D96" s="1">
-        <v>0.55971813864801911</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2201,13 +2201,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>6697.4803338744905</v>
+        <v>6697.4728127999997</v>
       </c>
       <c r="C97" s="1">
-        <v>15737.011</v>
+        <v>499.39400000000001</v>
       </c>
       <c r="D97" s="1">
-        <v>0.42558782820158736</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2215,13 +2215,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>1248.4212325621302</v>
+        <v>1248.4217855999998</v>
       </c>
       <c r="C98" s="1">
-        <v>3954.9690000000001</v>
+        <v>93.087999999999994</v>
       </c>
       <c r="D98" s="1">
-        <v>0.3156589173169575</v>
+        <v>13.411199999999997</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2229,13 +2229,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>2433.255120097745</v>
+        <v>2433.2476607999997</v>
       </c>
       <c r="C99" s="1">
-        <v>5049.3549999999996</v>
+        <v>181.434</v>
       </c>
       <c r="D99" s="1">
-        <v>0.48189424591809155</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2243,13 +2243,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>827.45879868010741</v>
+        <v>827.45762879999995</v>
       </c>
       <c r="C100" s="1">
-        <v>1207.92</v>
+        <v>61.698999999999998</v>
       </c>
       <c r="D100" s="1">
-        <v>0.68502781531898427</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2257,13 +2257,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>2974.0898470022603</v>
+        <v>2974.0811231999996</v>
       </c>
       <c r="C101" s="1">
-        <v>9321.3209999999999</v>
+        <v>221.761</v>
       </c>
       <c r="D101" s="1">
-        <v>0.31906312924984137</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2271,13 +2271,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>1957.061021784288</v>
+        <v>1957.0561823999999</v>
       </c>
       <c r="C102" s="1">
-        <v>3381.2460000000001</v>
+        <v>145.92699999999999</v>
       </c>
       <c r="D102" s="1">
-        <v>0.57879876879241787</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2285,13 +2285,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>4926.4390747155203</v>
+        <v>4926.4433855999996</v>
       </c>
       <c r="C103" s="1">
-        <v>6939.2250000000004</v>
+        <v>367.33800000000002</v>
       </c>
       <c r="D103" s="1">
-        <v>0.70994081827805267</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2299,13 +2299,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>5691.5869089011976</v>
+        <v>5691.5791679999993</v>
       </c>
       <c r="C104" s="1">
-        <v>25749.844000000001</v>
+        <v>424.39</v>
       </c>
       <c r="D104" s="1">
-        <v>0.22103384039535143</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2313,13 +2313,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>3622.6855268785207</v>
+        <v>3622.6735776</v>
       </c>
       <c r="C105" s="1">
-        <v>4990.4859999999999</v>
+        <v>270.12299999999999</v>
       </c>
       <c r="D105" s="1">
-        <v>0.72591838287463806</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2327,13 +2327,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>1539.5237193764717</v>
+        <v>1539.5252928</v>
       </c>
       <c r="C106" s="1">
-        <v>1604.8710000000001</v>
+        <v>114.794</v>
       </c>
       <c r="D106" s="1">
-        <v>0.95928191074327585</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2341,13 +2341,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>3880.2703892572704</v>
+        <v>3880.2624959999998</v>
       </c>
       <c r="C107" s="1">
-        <v>6208.35</v>
+        <v>289.33</v>
       </c>
       <c r="D107" s="1">
-        <v>0.62500831771038523</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2355,13 +2355,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>2949.1051881279241</v>
+        <v>2949.1094687999998</v>
       </c>
       <c r="C108" s="1">
-        <v>6820.3469999999998</v>
+        <v>219.899</v>
       </c>
       <c r="D108" s="1">
-        <v>0.43239811524661781</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2369,13 +2369,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>505.04616964480749</v>
+        <v>505.05238079999998</v>
       </c>
       <c r="C109" s="1">
-        <v>1331.1030000000001</v>
+        <v>37.658999999999999</v>
       </c>
       <c r="D109" s="1">
-        <v>0.37941930086913445</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,13 +2383,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>584.426932566647</v>
+        <v>584.41986239999994</v>
       </c>
       <c r="C110" s="1">
-        <v>641.52200000000005</v>
+        <v>43.576999999999998</v>
       </c>
       <c r="D110" s="1">
-        <v>0.91100060881255351</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2397,13 +2397,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>4585.3891165730438</v>
+        <v>4585.3965696000005</v>
       </c>
       <c r="C111" s="1">
-        <v>15100.382</v>
+        <v>341.90800000000002</v>
       </c>
       <c r="D111" s="1">
-        <v>0.3036604714088057</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2411,13 +2411,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>3261.3491224442459</v>
+        <v>3261.3490271999999</v>
       </c>
       <c r="C112" s="1">
-        <v>5658.33</v>
+        <v>243.18100000000001</v>
       </c>
       <c r="D112" s="1">
-        <v>0.57638015500054718</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2425,13 +2425,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>6225.5390624697329</v>
+        <v>6225.546096</v>
       </c>
       <c r="C113" s="1">
-        <v>84658.404999999999</v>
+        <v>464.20499999999998</v>
       </c>
       <c r="D113" s="1">
-        <v>7.3537164590683379E-2</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2439,13 +2439,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="1">
-        <v>1950.1072465530597</v>
+        <v>1950.1091807999999</v>
       </c>
       <c r="C114" s="1">
-        <v>2664.4029999999998</v>
+        <v>145.40899999999999</v>
       </c>
       <c r="D114" s="1">
-        <v>0.73191151884795946</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2453,13 +2453,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>2863.1137847011541</v>
+        <v>2863.1168543999997</v>
       </c>
       <c r="C115" s="1">
-        <v>8357.7849999999999</v>
+        <v>213.48699999999999</v>
       </c>
       <c r="D115" s="1">
-        <v>0.34256848970165588</v>
+        <v>13.411199999999997</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2467,13 +2467,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>1849.3025152450855</v>
+        <v>1849.2971903999999</v>
       </c>
       <c r="C116" s="1">
-        <v>2735.7779999999998</v>
+        <v>137.892</v>
       </c>
       <c r="D116" s="1">
-        <v>0.67596951040803954</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2481,13 +2481,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>11.503938815700534</v>
+        <v>11.4933984</v>
       </c>
       <c r="C117" s="1">
-        <v>23.8</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D117" s="1">
-        <v>0.48335877376892999</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2495,13 +2495,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="1">
-        <v>606.31696856316387</v>
+        <v>606.32035199999996</v>
       </c>
       <c r="C118" s="1">
-        <v>3651.3580000000002</v>
+        <v>45.21</v>
       </c>
       <c r="D118" s="1">
-        <v>0.1660524573496118</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2509,13 +2509,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="1">
-        <v>620.86933400518842</v>
+        <v>620.87150399999996</v>
       </c>
       <c r="C119" s="1">
-        <v>633.01099999999997</v>
+        <v>46.295000000000002</v>
       </c>
       <c r="D119" s="1">
-        <v>0.98081918640464139</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>17.789004998925837</v>
+        <v>17.796662399999999</v>
       </c>
       <c r="C120" s="1">
-        <v>630.87800000000004</v>
+        <v>1.327</v>
       </c>
       <c r="D120" s="1">
-        <v>2.8197218794958512E-2</v>
+        <v>13.411199999999997</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2537,13 +2537,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="1">
-        <v>11.156069081524562</v>
+        <v>11.158118399999999</v>
       </c>
       <c r="C121" s="1">
-        <v>93.459000000000003</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="D121" s="1">
-        <v>0.11936859030724234</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2551,13 +2551,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>6.5781425598902086</v>
+        <v>6.5714879999999996</v>
       </c>
       <c r="C122" s="1">
-        <v>11.432</v>
+        <v>0.49</v>
       </c>
       <c r="D122" s="1">
-        <v>0.57541484953553257</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2565,13 +2565,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="1">
-        <v>611.92495592077455</v>
+        <v>611.92623359999993</v>
       </c>
       <c r="C123" s="1">
-        <v>905.70699999999999</v>
+        <v>45.628</v>
       </c>
       <c r="D123" s="1">
-        <v>0.67563235783843412</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2579,13 +2579,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="1">
-        <v>533.58699805024833</v>
+        <v>533.59141439999996</v>
       </c>
       <c r="C124" s="1">
-        <v>3325.4290000000001</v>
+        <v>39.786999999999999</v>
       </c>
       <c r="D124" s="1">
-        <v>0.16045659012724325</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2593,13 +2593,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="1">
-        <v>1798.5120329378444</v>
+        <v>1798.5089759999998</v>
       </c>
       <c r="C125" s="1">
-        <v>26967.277999999998</v>
+        <v>134.10499999999999</v>
       </c>
       <c r="D125" s="1">
-        <v>6.6692383003499445E-2</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2607,13 +2607,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="1">
-        <v>738.13061829671403</v>
+        <v>738.13903679999999</v>
       </c>
       <c r="C126" s="1">
-        <v>1211.22</v>
+        <v>55.039000000000001</v>
       </c>
       <c r="D126" s="1">
-        <v>0.60941085706701836</v>
+        <v>13.411200000000001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2621,13 +2621,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>1572.5580757998841</v>
+        <v>1572.5570783999999</v>
       </c>
       <c r="C127" s="1">
-        <v>13609.06</v>
+        <v>117.25700000000001</v>
       </c>
       <c r="D127" s="1">
-        <v>0.11555229206130946</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2635,13 +2635,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="1">
-        <v>7185.8290358679687</v>
+        <v>7185.8282496000002</v>
       </c>
       <c r="C128" s="1">
-        <v>17747.239000000001</v>
+        <v>535.80799999999999</v>
       </c>
       <c r="D128" s="1">
-        <v>0.40489842030458756</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2649,13 +2649,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="1">
-        <v>3670.3781411481923</v>
+        <v>3670.3772159999994</v>
       </c>
       <c r="C129" s="1">
-        <v>7276.6869999999999</v>
+        <v>273.68</v>
       </c>
       <c r="D129" s="1">
-        <v>0.50440236623455048</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2663,13 +2663,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="1">
-        <v>18078.798003086282</v>
+        <v>18078.7938144</v>
       </c>
       <c r="C130" s="1">
-        <v>3080414.0070000002</v>
+        <v>1348.037</v>
       </c>
       <c r="D130" s="1">
-        <v>5.8689507196122417E-3</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2677,13 +2677,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="1">
-        <v>432.05894890318518</v>
+        <v>432.05521920000001</v>
       </c>
       <c r="C131" s="1">
-        <v>757.91200000000003</v>
+        <v>32.216000000000001</v>
       </c>
       <c r="D131" s="1">
-        <v>0.57006479499359453</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2691,13 +2691,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="1">
-        <v>2929.1957018586677</v>
+        <v>2929.1938367999996</v>
       </c>
       <c r="C132" s="1">
-        <v>4043.556</v>
+        <v>218.41399999999999</v>
       </c>
       <c r="D132" s="1">
-        <v>0.72441081608828162</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2705,13 +2705,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="1">
-        <v>675.65309829994396</v>
+        <v>675.65625599999998</v>
       </c>
       <c r="C133" s="1">
-        <v>856.68100000000004</v>
+        <v>50.38</v>
       </c>
       <c r="D133" s="1">
-        <v>0.78868691881802444</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2719,13 +2719,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="1">
-        <v>3150.9869080251824</v>
+        <v>3150.9882623999997</v>
       </c>
       <c r="C134" s="1">
-        <v>3488.04</v>
+        <v>234.952</v>
       </c>
       <c r="D134" s="1">
-        <v>0.90336891435453215</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2733,13 +2733,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="1">
-        <v>3004.9070180228623</v>
+        <v>3004.9000607999997</v>
       </c>
       <c r="C135" s="1">
-        <v>7167.4279999999999</v>
+        <v>224.059</v>
       </c>
       <c r="D135" s="1">
-        <v>0.41924481390295965</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2747,13 +2747,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="1">
-        <v>2490.7499302021092</v>
+        <v>2490.7414752</v>
       </c>
       <c r="C136" s="1">
-        <v>5073.2389999999996</v>
+        <v>185.721</v>
       </c>
       <c r="D136" s="1">
-        <v>0.49095852377585786</v>
+        <v>13.411199999999999</v>
       </c>
     </row>
   </sheetData>
